--- a/ES_POSTBDF_v2_UPDATED.xlsx
+++ b/ES_POSTBDF_v2_UPDATED.xlsx
@@ -1,8 +1,26 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ES_POSTBDF_Overview" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Logic" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Logic Comparison" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STTM" sheetId="4" state="visible" r:id="rId4"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -10,13 +28,61 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7E6E6"/>
+        <bgColor rgb="00E7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0070AD47"/>
+        <bgColor rgb="0070AD47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC000"/>
+        <bgColor rgb="00FFC000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -31,8 +97,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +474,6202 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Business Stage</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Databricks (es_postbdf)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Hadoop (es_swift_postbdf)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1. Notification Processing</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Read notifications from Cosmos DB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Merge and get notifications from MapRDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2. Data Enrichment</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Join PermID results with TU Consumer/Address/Phone data</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Join using Pig scripts: hh_consumer.pig, hh_address.pig, hh_phone.pig</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3. PermID Mapping</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Create PatientAcctId↔PermID cross-reference</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Create using permidmap.pig: permIdPatientAcctId/{bc}, esNoHits/{bc}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4. Policy Processing</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Merge enriched data with insurance policy info</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>policyinfo.py: merge allDistinctRecs, imRecs, apply client blocking</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5. CM2 Matching</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6-pass matching algorithm with progressively relaxed criteria</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>cm2PassAll.py: 7 Spark actions (read_src + 6 passes + allmatches)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6. Packaging &amp; Transfer</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Package final results and transfer to eScan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Package and upload to LeadRepo via SFTP</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>FLOW DIAGRAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Databricks Flow</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Hadoop Flow</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Step 1</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Logging &amp; Notification</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Merge Notification</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Read from Cosmos DB</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>merge_notification action</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Step 2</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Get Notification</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Get Notification</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Retrieve processing batch</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>get_notification action</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Step 3</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Date Processing</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Get Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Extract batch date</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>get_date action</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Step 4</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Consumer Enrichment</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>ES Consumer</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>hh_consumer.py</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>es-consumer action (hh_consumer.pig)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Join: ESBDF.PermId = TUCONSUMER.TUKEY</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Join: ESBDF.PermId = TUCONSUMER.TUKEY</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Enrich: SSN, Names, DOB</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Enrich: SSN, FRST_NME, MIDL_NME, LAST_NME, DOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Step 5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Address Enrichment</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>ES Address</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>hh_address.py</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>es-address action (hh_address.pig)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Join with TU Address master</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Join with TU Address master</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Enrich: Address, City, State, Zip</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Enrich: ADDR_SEQ_NUM, ADDR_LINE_1, CITY, STATE, ZIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Step 6</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Phone Enrichment</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>ES Phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>hh_phone.py</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>es-phone action (hh_phone.pig)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Join with TU Phone master</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Join with TU Phone master</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Enrich: Phone numbers and types</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Enrich: PHONE_SEQ_NUM, PHONE_NUM, PHONE_TYPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Step 7</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>PermID Mapping</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>ES PermID Map</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Create PatientAcctId↔PermID xref</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>es-permidmap action (permidmap.pig)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Output: cross-reference table</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>Output: permIdPatientAcctId/{bc}, esNoHits/{bc}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>Step 8</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Policy Processing</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>ES Policy Info</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Merge with insurance policy data</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>es-policyinfo action (policyinfo.py)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Apply client blocking logic</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Read: allDistinctRecs, imRecs, client_to_block</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>Step 9</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>CM2 Matching - Pass 1</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>ES CM2 Source Read + 6 Match Passes</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>Exact match criteria</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>es-cm2-srcread: cm2PassAll.py (mode: cm2_read_src_files)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>es-cm2-match1: cm2PassAll.py (mode: cm2_match1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>Step 10</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>CM2 Matching - Passes 2-6</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>es-cm2-match2 through es-cm2-match6</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Progressively relaxed criteria</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>Each pass: cm2PassAll.py with different mode</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>Step 11</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>CM2 All Matches</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>ES CM2 All Matches</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Consolidate all matching results</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>es-cm2-allmatches: cm2PassAll.py (mode: cm2_allmatches)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>Step 12</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Packaging</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>ES Package</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Package final results</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>es-package action</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>Step 13</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Transfer to eScan</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>Upload DEG &amp; Notify</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Transfer packaged data</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>es-uploaddeg + notify-leadrepo-xref-update</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Step</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Component</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Logic Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Logging</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Log processing start to Cosmos DB</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Load PermID Results</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Read ESBDF: MagnetPermId, PermId, MatchInd, LinkId (pipe-delimited)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Consumer Enrichment</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Join ESBDF.PermId = TUCONSUMER.TUKEY → Enrich SSN, Names, DOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Address Enrichment</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Join with TU Address master → Enrich Address, City, State, Zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phone Enrichment</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Join with TU Phone master → Enrich Phone numbers and types</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PermID Mapping</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Create PatientAcctId↔PermID cross-reference, identify no-hits</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Policy Processing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Merge enriched data with insurance policy info, apply client blocking</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CM2 Source Read</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Load source files for CM2 matching algorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CM2 Matching (6 passes)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pass 1: Exact match; Passes 2-6: Progressively relaxed criteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CM2 Consolidation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Consolidate all matching results from 6 passes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Packaging</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Package final matched results for delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Transfer packaged data to eScan/LeadRepo</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Hadoop (es_swift_postbdf)</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr"/>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Step</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Script/Action</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Purpose</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Logic Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>merge_notification</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Merge notification records</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Combine notification data from MapRDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>get_notification</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Retrieve processing batch</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Get batch details for current run</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>get_date</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Extract batch date</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Determine processing date from batch</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>es-consumer (hh_consumer.pig)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Consumer data enrichment</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Join: ESBDF.PermId = TUCONSUMER.TUKEY; Enrich: SSN, FRST_NME, MIDL_NME, LAST_NME, DOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>es-address (hh_address.pig)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Address data enrichment</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Join with TU Address master; Enrich: ADDR_SEQ_NUM, ADDR_LINE_1, CITY, STATE, ZIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>es-phone (hh_phone.pig)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Phone data enrichment</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Join with TU Phone master; Enrich: PHONE_SEQ_NUM, PHONE_NUM, PHONE_TYPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>es-permidmap (permidmap.pig)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Create PermID xref</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Output: permIdPatientAcctId/{bc} (xref table), esNoHits/{bc} (no-match records)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>es-policyinfo (policyinfo.py)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Policy info processing</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Read: allDistinctRecs, imRecs, client_to_block; Apply client blocking logic; Output: esincpeople_stg, iepostbdf_fill_stg, correlatedFinalPolicyInfo, finalPolicyInfo</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>es-cm2-srcread (cm2PassAll.py)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CM2 source file read</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mode: cm2_read_src_files; Load source data for matching</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>es-cm2-match1 (cm2PassAll.py)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CM2 Pass 1 - Exact</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mode: cm2_match1; Exact match on all criteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>es-cm2-match2 (cm2PassAll.py)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CM2 Pass 2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mode: cm2_match2; Relaxed criteria (level 2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>es-cm2-match3 (cm2PassAll.py)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CM2 Pass 3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mode: cm2_match3; Relaxed criteria (level 3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>es-cm2-match4 (cm2PassAll.py)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CM2 Pass 4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mode: cm2_match4; Relaxed criteria (level 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>es-cm2-match5 (cm2PassAll.py)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CM2 Pass 5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mode: cm2_match5; Relaxed criteria (level 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>es-cm2-match6 (cm2PassAll.py)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CM2 Pass 6</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Mode: cm2_match6; Relaxed criteria (level 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>es-cm2-allmatches (cm2PassAll.py)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CM2 consolidation</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Mode: cm2_allmatches; Consolidate results from all 6 passes</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>es-package</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Package results</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Package final matched results for delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>es-uploaddeg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Upload to LeadRepo</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Transfer packaged data via SFTP</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>notify-leadrepo-xref-update</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Notification update</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Update notification status in MapRDB</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Stage</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Databricks Logic</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Hadoop (es_swift_postbdf) Logic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Logic Comparison</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Similarity %</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Notification Processing</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Read notifications from Cosmos DB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Merge and get notifications from MapRDB (merge_notification + get_notification)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Different storage (Cosmos vs MapRDB), but same purpose: retrieve batch for processing</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Date Processing</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Extract batch date from notification</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>get_date action extracts processing date</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Identical logic: extract date from batch notification</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Input Data Loading</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Read ESBDF CSV: MagnetPermId|PermId|MatchInd|LinkId</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Load ESBDF data via Pig LOAD statement</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Same input schema and delimiter (pipe), different framework (PySpark vs Pig)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Consumer Enrichment</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>hh_consumer.py: ESBDF.join(TUCONSUMER, ESBDF.PermId == TUCONSUMER.TUKEY)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>hh_consumer.pig: JOIN ESBDF BY PermId, TUCONSUMER BY TUKEY</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Identical join logic (INNER JOIN on PermId=TUKEY), same enrichment fields (SSN, Names, DOB)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Address Enrichment</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>hh_address.py: Join with TU Address parquet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>hh_address.pig: JOIN with TU Address via Pig</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Same join logic, same enrichment (ADDR_SEQ_NUM, ADDR_LINE_1, CITY, STATE, ZIP)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Phone Enrichment</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>hh_phone.py: Join with TU Phone parquet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>hh_phone.pig: JOIN with TU Phone via Pig</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Same join logic, same enrichment (PHONE_SEQ_NUM, PHONE_NUM, PHONE_TYPE)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PermID Mapping</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Create PatientAcctId↔PermID xref table</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>permidmap.pig: Output permIdPatientAcctId/{bc} and esNoHits/{bc}</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Identical purpose: create xref and identify no-hits; Hadoop explicitly separates no-hits file</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Policy Processing</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Merge enriched data with insurance policy info, apply client blocking</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>policyinfo.py: Read allDistinctRecs, imRecs, client_to_block; apply blocking logic</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Same logic: merge policy data and apply client blocking rules</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CM2 Source Read</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Load source files for CM2 matching</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>es-cm2-srcread: cm2PassAll.py (mode: cm2_read_src_files)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Identical: both load source data for matching algorithm</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CM2 Pass 1 (Exact)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Exact match on all criteria</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>es-cm2-match1: cm2PassAll.py (mode: cm2_match1)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Identical: exact matching logic</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CM2 Pass 2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Relaxed criteria (pass 2)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>es-cm2-match2: cm2PassAll.py (mode: cm2_match2)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Same relaxation level, same algorithm</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CM2 Pass 3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Relaxed criteria (pass 3)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>es-cm2-match3: cm2PassAll.py (mode: cm2_match3)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Same relaxation level, same algorithm</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CM2 Pass 4</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Relaxed criteria (pass 4)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>es-cm2-match4: cm2PassAll.py (mode: cm2_match4)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Same relaxation level, same algorithm</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CM2 Pass 5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Relaxed criteria (pass 5)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>es-cm2-match5: cm2PassAll.py (mode: cm2_match5)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Same relaxation level, same algorithm</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CM2 Pass 6</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Relaxed criteria (pass 6)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>es-cm2-match6: cm2PassAll.py (mode: cm2_match6)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Same relaxation level, same algorithm</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CM2 Consolidation</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Consolidate all 6 pass results</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>es-cm2-allmatches: cm2PassAll.py (mode: cm2_allmatches)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Identical: merge all pass results into final output</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Packaging &amp; Transfer</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Package and transfer to eScan</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>es-package + es-uploaddeg: Package and SFTP to LeadRepo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Same purpose: package and transfer; different destination (eScan vs LeadRepo)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Average</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="50" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
+    <col width="50" customWidth="1" min="14" max="14"/>
+    <col width="30" customWidth="1" min="15" max="15"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Databricks</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v/>
+      </c>
+      <c r="C1" t="n">
+        <v/>
+      </c>
+      <c r="D1" t="n">
+        <v/>
+      </c>
+      <c r="E1" t="n">
+        <v/>
+      </c>
+      <c r="F1" t="n">
+        <v/>
+      </c>
+      <c r="G1" t="n">
+        <v/>
+      </c>
+      <c r="H1" t="n">
+        <v/>
+      </c>
+      <c r="I1" t="n">
+        <v/>
+      </c>
+      <c r="J1" t="n">
+        <v/>
+      </c>
+      <c r="K1" t="n">
+        <v/>
+      </c>
+      <c r="L1" t="n">
+        <v/>
+      </c>
+      <c r="M1" t="n">
+        <v/>
+      </c>
+      <c r="N1" t="n">
+        <v/>
+      </c>
+      <c r="O1" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Processing Order</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Schema</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Target Table Name</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Target Field Name</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Target Field Data Type</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>pk?</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>contains_pii</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Field Type</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Field Depends On</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Pre Processing Rules</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Source Field Names</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Source Dataset Name</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Field Definition</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DATABRICKS_POSTBDF_HH</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>tuconsumer</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>TUKEY</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>STRING</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PermId, TUKEY</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>JOIN (hh_consumer.py): Inner Join with TUCONSUMER on ESBDF.PermId = TUCONSUMER.TUKEY.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>PermId</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>ESBDF (allDistinctRecs)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>TransUnion Consumer Key (PermID).</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DATABRICKS_POSTBDF_HH</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>tuconsumer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FRST_NME</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>STRING</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Demographic</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>FRST_NME</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Direct Map (Enrichment from TU).</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>FRST_NME</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>TUCONSUMER</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Consumer First Name from TU Master.</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DATABRICKS_POSTBDF_HH</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>tuconsumer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SSN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>STRING</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>SSN</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Direct Map (Enrichment from TU).</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SSN</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>TUCONSUMER</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Consumer Social Security Number from TU Master.</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DATABRICKS_POSTBDF_HH</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>tuaddress</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TUKEY</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>STRING</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PermId, TUKEY</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>JOIN (hh_address.py): Inner Join with TUADDRESS on ESBDF.PermId = TUADDRESS.TUKEY.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>PermId</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>ESBDF (allDistinctRecs)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>TransUnion Consumer Key (PermID).</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DATABRICKS_POSTBDF_HH</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>tuaddress</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ADDR_SEQ_NUM</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>STRING</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ADDR_SEQ_NUM</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Direct Map (Enrichment from TU).</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ADDR_SEQ_NUM</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>TUADDRESS</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Address Sequence Number.</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DATABRICKS_POSTBDF_HH</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>tuphone</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TUKEY</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>STRING</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PermId, TUKEY</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>JOIN (hh_phone.py): Inner Join with TUPHONE on ESBDF.PermId = TUPHONE.TUKEY.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>PermId</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>ESBDF (allDistinctRecs)</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>TransUnion Consumer Key (PermID).</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DATABRICKS_POSTBDF_HH</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>tuphone</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PHONE_SEQ_NUM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>STRING</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PHONE_SEQ_NUM</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Direct Map (Enrichment from TU).</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>PHONE_SEQ_NUM</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>TUPHONE</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Phone Sequence Number.</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DATABRICKS_POSTBDF_PERMIDMAP</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>permIdPatientAcctId</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>permid</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>STRING</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>permid</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Direct Copy/Stage (hh_permidmap.py) of the Match 1 PermID map.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>permid</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>M1 Match File (CSV)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>PermID assigned by the Match 1 logic.</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DATABRICKS_POSTBDF_PERMIDMAP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>permIdPatientAcctId</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PatientAcctId</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>STRING</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>patientacctifk</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Direct Copy/Stage (hh_permidmap.py).</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>patientacctifk</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>M1 Match File (CSV)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Source Patient Account ID.</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DATABRICKS_POSTBDF_CM2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>finalPolicyInfo</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GMRNId</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>STRING</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>GMRNId</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>UNION ALL (cm2PassAll.py): Merges results from up to 6 Custom Match passes.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>GMRNId</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>CM2 Match Pass (Parquet)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Global Medical Record Number ID assigned by CM2.</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DATABRICKS_POSTBDF_CM2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>finalPolicyInfo</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>matchInd</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>STRING</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Metadata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>matchInd</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Transformation: Hardcoded value 'M2' (cm2PassAll.py).</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>M2'</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>(Calculated)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Match Indicator for Custom Match 2.</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Hadoop</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>Processing Order</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>Schema</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>Target Table Name</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>Target Field Name</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>Target Field Data Type</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>pk?</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>contains_pii</t>
+        </is>
+      </c>
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>Field Type</t>
+        </is>
+      </c>
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>Field Depends On</t>
+        </is>
+      </c>
+      <c r="K16" s="6" t="inlineStr">
+        <is>
+          <t>Pre Processing Rules</t>
+        </is>
+      </c>
+      <c r="L16" s="6" t="inlineStr">
+        <is>
+          <t>Source Field Names</t>
+        </is>
+      </c>
+      <c r="M16" s="6" t="inlineStr">
+        <is>
+          <t>Source Dataset Name</t>
+        </is>
+      </c>
+      <c r="N16" s="6" t="inlineStr">
+        <is>
+          <t>Field Definition</t>
+        </is>
+      </c>
+      <c r="O16" s="6" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_CONSUMER</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>tuconsumer/$bcdate</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MagnetPermId</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>bytearray</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>hh_consumer.pig</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>MagnetPermId</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>ESBDF (allDistinctRecs)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Magnet system permanent identifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_CONSUMER</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>tuconsumer/$bcdate</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PermId</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>bytearray</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>hh_consumer.pig</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>JOIN key with TUKEY</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>PermId</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>ESBDF (allDistinctRecs)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Permanent identifier for joining with TU Consumer</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_CONSUMER</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>tuconsumer/$bcdate</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MatchInd</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>bytearray</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Metadata</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>hh_consumer.pig</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>MatchInd</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>ESBDF (allDistinctRecs)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Match indicator flag</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_CONSUMER</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>tuconsumer/$bcdate</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>TUKEY</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>bytearray</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>hh_consumer.pig</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>JOIN: ESBDF.PermId = TUCONSUMER.TUKEY</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>TUKEY</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>TUCONSUMER</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>TransUnion key identifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_CONSUMER</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>tuconsumer/$bcdate</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SSN</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>hh_consumer.pig</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>SSN</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>TUCONSUMER</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Social Security Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_CONSUMER</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>tuconsumer/$bcdate</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FRST_NME</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Demographic</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>hh_consumer.pig</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>FRST_NME</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>TUCONSUMER</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>First name of consumer</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_CONSUMER</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>tuconsumer/$bcdate</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MIDL_NME</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Demographic</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>hh_consumer.pig</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>MIDL_NME</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>TUCONSUMER</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Middle name of consumer</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_CONSUMER</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>tuconsumer/$bcdate</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAST_NME</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Demographic</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>hh_consumer.pig</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>LAST_NME</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>TUCONSUMER</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Last name of consumer</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_CONSUMER</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>tuconsumer/$bcdate</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Demographic</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>hh_consumer.pig</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>TUCONSUMER</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Date of birth</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_CONSUMER</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>tuconsumer/$bcdate</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>GENERATIONAL_NME_SFX</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Demographic</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>hh_consumer.pig</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>GENERATIONAL_NME_SFX</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>TUCONSUMER</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Generational name suffix (Jr, Sr, III, etc.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_ADDRESS</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>tuaddress/$bcdate</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MagnetPermId</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>bytearray</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>hh_address.pig</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>TRIM</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>MagnetPermId</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>ESBDF (allDistinctRecs)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Magnet system permanent identifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_ADDRESS</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>tuaddress/$bcdate</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>PermId</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>bytearray</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>hh_address.pig</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>JOIN key with TUKEY</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>PermId</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>ESBDF (allDistinctRecs)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Permanent identifier for joining with TU Address</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>13</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_ADDRESS</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>tuaddress/$bcdate</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>TUKEY</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>hh_address.pig</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>TRIM, JOIN: ESBDF.PermId = TUADDRESS.TUKEY</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>TUKEY</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>TUADDRESS</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>TransUnion key identifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>14</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_ADDRESS</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>tuaddress/$bcdate</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ADDR_SEQ_NUM</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>hh_address.pig</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>TRIM, Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>ADDR_SEQ_NUM</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>TUADDRESS</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Address sequence number</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>15</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_ADDRESS</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>tuaddress/$bcdate</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>STR_NME</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>hh_address.pig</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>TRIM, Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>STR_NME</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>TUADDRESS</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Street name</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>16</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_ADDRESS</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>tuaddress/$bcdate</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>CITY_NME</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>hh_address.pig</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>TRIM, Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>CITY_NME</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>TUADDRESS</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>City name</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>17</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_ADDRESS</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>tuaddress/$bcdate</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>STATE_CDE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>hh_address.pig</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>TRIM, Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>STATE_CDE</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>TUADDRESS</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>State code</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_ADDRESS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>tuaddress/$bcdate</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ZIP_CDE</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>hh_address.pig</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>TRIM, Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>ZIP_CDE</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>TUADDRESS</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>ZIP code</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>19</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_PHONE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>tuphone/$bcdate</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MagnetPermId</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>bytearray</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>hh_phone.pig</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>MagnetPermId</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>ESBDF (allDistinctRecs)</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Magnet system permanent identifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_PHONE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>tuphone/$bcdate</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>PermId</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>bytearray</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>hh_phone.pig</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>JOIN key with TUKEY</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>PermId</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>ESBDF (allDistinctRecs)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Permanent identifier for joining with TU Phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>21</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_PHONE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>tuphone/$bcdate</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>TUKEY</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>bytearray</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>hh_phone.pig</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>JOIN: ESBDF.PermId = TUPHONE.TUKEY</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>TUKEY</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>TUPHONE</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>TransUnion key identifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>22</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_PHONE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>tuphone/$bcdate</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>PHONE_SEQ_NUM</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>hh_phone.pig</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>PHONE_SEQ_NUM</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>TUPHONE</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Phone sequence number</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>23</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_PHONE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>tuphone/$bcdate</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>PHONE_AREA_CDE</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>hh_phone.pig</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>PHONE_AREA_CDE</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>TUPHONE</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Phone area code</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>24</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_PHONE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>tuphone/$bcdate</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>PHONE_XCHNG_NUM</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>hh_phone.pig</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>PHONE_XCHNG_NUM</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>TUPHONE</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Phone exchange number</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>25</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_PHONE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>tuphone/$bcdate</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>PHONE_SFX_NUM</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>chararray</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>hh_phone.pig</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Direct Map (Enrichment from TU)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>PHONE_SFX_NUM</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>TUPHONE</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Phone suffix number</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>26</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_PERMIDMAP</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>permIdPatientAcctId/$bcdate</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>varies</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>permidmap.pig</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Direct copy, no transformation</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>All fields</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>permIdPatientAcctId (ES)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>PermId to PatientAcctId mapping (current batch)</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Direct file copy from ES publish to escanoutput</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>27</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_PERMIDMAP</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>permIdPatientAcctId/$bcdate-M1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>varies</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>permidmap.pig</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Direct copy, no transformation</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>All fields</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>permIdPatientAcctId (ES)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>PermId to PatientAcctId mapping (M-1 batch)</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Direct file copy from ES publish to escanoutput</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>28</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_PERMIDMAP</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>esNoHits/$bcdate</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>varies</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Metadata</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>permidmap.pig</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Direct copy, no transformation</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>All fields</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>es_nohits (ES)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Records with no hits from ES scan</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Direct file copy from ES publish to escanoutput</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>29</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_POLICY</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>correlatedFinalPolicyInfo/$bcdate</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>esPermId</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>StringType</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>policyinfo.py</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Filter NULL/blank, DISTINCT, Window partitioning</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>esPermId</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>allDistinctRecs (ES)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>ES Permanent ID for joining with IE</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Renamed to iePermId in output</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>30</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_POLICY</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>correlatedFinalPolicyInfo/$bcdate</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>esMatchInd</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>StringType</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Metadata</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>policyinfo.py</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Set to IM if count=2, else original</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>esMatchInd</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>allDistinctRecs (ES)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Match indicator (IM for Insurance Match)</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Logic: IM when espermid count=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>31</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_POLICY</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>correlatedFinalPolicyInfo/$bcdate</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>subscriberLastName</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>StringType</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Demographic</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>policyinfo.py</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Fill NA with empty string, length ≤100 validation</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>subscriberlastname</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>imRecs (IE)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Subscriber last name</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_POLICY</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>correlatedFinalPolicyInfo/$bcdate</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>subscriberFirstName</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>StringType</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Demographic</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>policyinfo.py</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Fill NA with empty string, length ≤100 validation</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>subscriberfirstname</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>imRecs (IE)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Subscriber first name</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_POLICY</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>correlatedFinalPolicyInfo/$bcdate</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>subscriberSSN</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>StringType</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>policyinfo.py</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Fill NA with empty string, length ≤30 validation</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>subscriberssn</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>imRecs (IE)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Subscriber Social Security Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_POLICY</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>correlatedFinalPolicyInfo/$bcdate</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>subscriberDOB</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>StringType</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Demographic</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>policyinfo.py</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Fill NA with empty string, length ≤20 validation</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>subscriberdob</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>imRecs (IE)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Subscriber date of birth</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_POLICY</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>correlatedFinalPolicyInfo/$bcdate</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>payerId</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>StringType</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>policyinfo.py</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Fill NA with empty string, length 5-50 validation</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>payerid</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>imRecs (IE)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Payer identifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_POLICY</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>correlatedFinalPolicyInfo/$bcdate</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>clientId</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>StringType</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>policyinfo.py</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Fill NA, filter non-blank, RIGHT OUTER JOIN to exclude blocked clients</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>clientid</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>imRecs (IE), client_to_block</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Client identifier (blocked clients excluded)</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Filtered via client_to_block table</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_POLICY</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>correlatedFinalPolicyInfo/$bcdate</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>dependentFlag</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>StringType</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Metadata</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>policyinfo.py</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Literal F for subscribers, T for dependents</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>N/A (Calculated)</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>N/A (Calculated)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Indicates subscriber (F) vs dependent (T) record</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Generated field</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_POLICY</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>finalPolicyInfo/$bcdate</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>StringType</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>varies</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>varies</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>policyinfo.py</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Filter: _c24 != M1</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>All fields</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>correlatedFinalPolicyInfo</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Final policy info (non-M1 records)</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Filtered from correlatedFinalPolicyInfo</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>HADOOP_POSTBDF_POLICY</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>finalPolicyInfo/$bcdate-M1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>StringType</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>varies</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>varies</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>policyinfo.py</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Filter: _c24 == M1</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>All fields</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>correlatedFinalPolicyInfo</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Final policy info (M1 records only)</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>M-1 batch records</t>
+        </is>
+      </c>
+    </row>
+    <row r="56"/>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Comparison</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Databricks (es_postbdf)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Hadoop (es_swift_postbdf)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Comparison</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>Consumer Enrichment</t>
+        </is>
+      </c>
+      <c r="B59" s="8" t="inlineStr">
+        <is>
+          <t>Source: ESBDF.PermId</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>Source: ESBDF.PermId</t>
+        </is>
+      </c>
+      <c r="D59" s="8" t="inlineStr">
+        <is>
+          <t>Similar: Both use same join logic</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Pre-processing: JOIN ESBDF.PermId = TUCONSUMER.TUKEY</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Pre-processing: JOIN ESBDF.PermId = TUCONSUMER.TUKEY (Pig)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Identical: Same join logic, framework difference (PySpark vs Pig)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Consumer Fields</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Source: SSN, FRST_NME from TUCONSUMER</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Source: SSN, FRST_NME, MIDL_NME, LAST_NME, DOB, GENERATIONAL_NME_SFX from TUCONSUMER</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Similar: Hadoop extracts more fields (includes suffixes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Pre-processing: Direct Map</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Pre-processing: Direct Map</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Identical: Same enrichment logic</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Address Enrichment</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Source: ESBDF.PermId</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Source: ESBDF.PermId</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Similar: Both use same join logic</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Pre-processing: JOIN ESBDF.PermId = TUADDRESS.TUKEY</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Pre-processing: TRIM, JOIN ESBDF.PermId = TUADDRESS.TUKEY (Pig)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Similar: Hadoop adds TRIM transformation</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Address Fields</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Source: ADDR_SEQ_NUM from TUADDRESS</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Source: ADDR_SEQ_NUM, STR_NME, CITY_NME, STATE_CDE, ZIP_CDE, ZIP_EXTND_CDE from TUADDRESS</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Similar: Hadoop extracts more detailed address fields</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Pre-processing: Direct Map</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Pre-processing: TRIM, Direct Map</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Similar: Hadoop adds TRIM for all address fields</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Phone Enrichment</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Source: ESBDF.PermId</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Source: ESBDF.PermId</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Similar: Both use same join logic</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Pre-processing: JOIN ESBDF.PermId = TUPHONE.TUKEY</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Pre-processing: JOIN ESBDF.PermId = TUPHONE.TUKEY (Pig)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Identical: Same join logic</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Phone Fields</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Source: PHONE_SEQ_NUM from TUPHONE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Source: PHONE_SEQ_NUM, PHONE_AREA_CDE, PHONE_XCHNG_NUM, PHONE_SFX_NUM from TUPHONE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Similar: Hadoop extracts phone as separate components</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Pre-processing: Direct Map</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Pre-processing: Direct Map</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Identical: Same enrichment logic</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PermID Mapping</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Source: M1 Match File (CSV)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Source: permIdPatientAcctId from ES publish</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Similar: Both create PermId↔PatientAcctId xref</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Pre-processing: Direct Copy/Stage (hh_permidmap.py)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Pre-processing: Direct copy (permidmap.pig), no transformation</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Identical: Both are direct file copies</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>No-Hit Handling</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Not explicitly shown in Databricks STTM</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Source: es_nohits from ES, Output: esNoHits/$bcdate</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Different: Hadoop explicitly handles no-hit records separately</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Policy Processing</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Source: Not detailed in Databricks STTM</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Source: allDistinctRecs (ES), imRecs (IE), client_to_block</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Similar: Hadoop shows comprehensive policy join logic</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Pre-processing: Filter NULL, DISTINCT, Window partitioning, Match indicator logic (IM)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Different: Hadoop shows detailed transformations</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Match Indicator</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Source: Hardcoded M2 for CM2</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Source: esMatchInd, set to IM if count=2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Different: Databricks uses M2 for CM2, Hadoop uses IM for Insurance Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Client Blocking</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Not shown in Databricks STTM</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Source: client_to_block, RIGHT OUTER JOIN to exclude blocked clients</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Different: Hadoop explicitly shows client blocking logic</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Output Separation</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Not shown in Databricks STTM</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Output: finalPolicyInfo/$bcdate (non-M1) and finalPolicyInfo/$bcdate-M1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Different: Hadoop separates M1 records into separate output</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Data Types</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>PySpark: STRING</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Pig: chararray, bytearray; PySpark: StringType</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Similar: Equivalent string types, different frameworks</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Transformation Engine</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PySpark (Python)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Pig (hh_*.pig) + PySpark (policyinfo.py)</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Different: Hadoop uses both Pig and PySpark</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Storage Format</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Parquet</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>HDFS (Pig output) + Parquet (PySpark output)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Different: Hadoop uses mixed storage formats</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Overall Similarity</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>90-95%: Core logic identical, framework and granularity differences</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>